--- a/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/BlankPivotTableField/BlankPivotTableField.xlsx
+++ b/ClosedXML_Tests/Resource/Other/PivotTableReferenceFiles/BlankPivotTableField/BlankPivotTableField.xlsx
@@ -16,11 +16,7 @@
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
   <x:pivotCaches>
-    <x:pivotCache cacheId="0" r:id="rId11"/>
-    <x:pivotCache cacheId="1" r:id="rId14"/>
-    <x:pivotCache cacheId="2" r:id="rId17"/>
-    <x:pivotCache cacheId="3" r:id="rId20"/>
-    <x:pivotCache cacheId="4" r:id="rId23"/>
+    <x:pivotCache cacheId="0" r:id="rId10"/>
   </x:pivotCaches>
 </x:workbook>
 </file>
@@ -203,7 +199,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="1" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt2" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -266,7 +262,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt3" cacheId="2" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt3" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisRow" showAll="0" defaultSubtotal="0">
@@ -330,7 +326,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt4" cacheId="3" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt4" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -392,7 +388,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt5" cacheId="4" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
+<x:pivotTableDefinition xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="pvt5" cacheId="0" dataCaption="Values" showError="0" missingCaption="" showMissing="1" pageWrap="0" pageOverThenDown="0" indent="1">
   <x:location ref="A1" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <x:pivotFields count="6">
     <x:pivotField name="Name" axis="axisCol" showAll="0" defaultSubtotal="0">
@@ -1119,7 +1115,7 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId10"/>
+    <x:tablePart r:id="rId11"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1241,7 +1237,7 @@
   </x:cacheSource>
   <x:cacheFields>
     <x:cacheField name="Name">
-      <x:sharedItems count="5">
+      <x:sharedItems>
         <x:s v="Croissant"/>
         <x:s v="Doughnut"/>
         <x:s v="Bearclaw"/>
@@ -1250,155 +1246,21 @@
       </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
+      <x:sharedItems containsString="0" containsNumber="1" containsInteger="1"/>
     </x:cacheField>
     <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
+      <x:sharedItems containsString="0" containsNumber="1" containsInteger="1"/>
     </x:cacheField>
     <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
+      <x:sharedItems containsString="0" containsNumber="1"/>
     </x:cacheField>
     <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
+      <x:sharedItems containsSemiMixedTypes="1" containsBlank="1">
+        <x:m/>
+      </x:sharedItems>
     </x:cacheField>
     <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14"/>
-    </x:cacheField>
-  </x:cacheFields>
-</x:pivotCacheDefinition>
-</file>
-
-<file path=pivotCache/pivotCacheDefinition5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" r:id="rId1" saveData="1" refreshOnLoad="1">
-  <x:cacheSource type="worksheet">
-    <x:worksheetSource name="PastrySalesData"/>
-  </x:cacheSource>
-  <x:cacheFields>
-    <x:cacheField name="Name">
-      <x:sharedItems count="5">
-        <x:s v="Croissant"/>
-        <x:s v="Doughnut"/>
-        <x:s v="Bearclaw"/>
-        <x:s v="Danish"/>
-        <x:s v="Scone"/>
-      </x:sharedItems>
-    </x:cacheField>
-    <x:cacheField name="Code">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="101" maxValue="105" count="5"/>
-    </x:cacheField>
-    <x:cacheField name="NumberOfOrders">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="122" maxValue="394" count="14"/>
-    </x:cacheField>
-    <x:cacheField name="Quality">
-      <x:sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="-20.24" maxValue="89.99" count="16"/>
-    </x:cacheField>
-    <x:cacheField name="Month">
-      <x:sharedItems containsBlank="1"/>
-    </x:cacheField>
-    <x:cacheField name="BakeDate">
-      <x:sharedItems containsSemiMixedTypes="1" containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00" count="14">
+      <x:sharedItems containsSemiMixedTypes="0" containsDate="1" containsString="0" minDate="2016-04-21T00:00:00" maxDate="2017-06-14T00:00:00">
         <x:d v="2016-04-21T00:00:00"/>
         <x:d v="2016-05-03T00:00:00"/>
         <x:d v="2016-06-24T00:00:00"/>
@@ -1413,7 +1275,6 @@
         <x:d v="2017-04-22T00:00:00"/>
         <x:d v="2017-05-03T00:00:00"/>
         <x:d v="2017-06-14T00:00:00"/>
-        <x:m/>
       </x:sharedItems>
     </x:cacheField>
   </x:cacheFields>
@@ -1422,20 +1283,4 @@
 
 <file path=pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=pivotCache/pivotCacheRecords5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:pivotCacheRecords xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>